--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99994.10483971221</v>
+        <v>18155808.65495555</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99994.10483971221</v>
+        <v>18155808.65495555</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>97492.53327089174</v>
+        <v>12414602.56960818</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97492.53327089174</v>
+        <v>12414602.56960818</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608436758.182244</v>
+        <v>52796014.07655492</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13057.00370380404</v>
+        <v>1340619.965640887</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25084.99440646325</v>
+        <v>2523436.309007941</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37112.98510912243</v>
+        <v>3706252.652374996</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52501.02752808996</v>
+        <v>4340933.791088571</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>65838.43933107989</v>
+        <v>5445660.054519685</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78634.78279649203</v>
+        <v>6526962.481134781</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91417.76228476774</v>
+        <v>7605406.74484857</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>104162.747509417</v>
+        <v>8683851.00856236</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>118756.7225994422</v>
+        <v>9431568.783817131</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>131851.065110123</v>
+        <v>10498095.73921641</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>144703.5413174719</v>
+        <v>11531703.12566131</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>157555.6433390192</v>
+        <v>12565310.51210622</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>170407.3711747648</v>
+        <v>13598917.89855112</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>183991.1301950339</v>
+        <v>14507613.18566441</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>203742.1081085291</v>
+        <v>14753604.53597297</v>
       </c>
     </row>
   </sheetData>
